--- a/data/trans_camb/P23_DUKE_AF_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AF_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,1</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,54</t>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -0,73</t>
+          <t>-16,92; -4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 4,94</t>
+          <t>-12,62; -0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,28; 53,12</t>
+          <t>-5,75; 7,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,36</t>
+          <t>-5,36; 7,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,58</t>
+          <t>-2,25; 8,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,44; 53,19</t>
+          <t>-3,11; 7,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -0,5</t>
+          <t>-1,02; 9,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,77</t>
+          <t>-3,33; 7,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,36; 51,11</t>
+          <t>-3,16; 7,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 4,65</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 0,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 3,02</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 6,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 5,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,96%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>211,52%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>257,48%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>233,86%</t>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,69; -3,75</t>
+          <t>-23,36; -6,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 28,63</t>
+          <t>-17,31; -1,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>134,69; 292,57</t>
+          <t>-7,88; 11,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 14,31</t>
+          <t>-7,12; 10,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 67,44</t>
+          <t>-3,16; 13,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>204,11; 335,98</t>
+          <t>-4,62; 11,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,4; -2,2</t>
+          <t>-1,56; 15,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 36,49</t>
+          <t>-5,1; 13,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>186,64; 287,22</t>
+          <t>-4,7; 12,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 7,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 0,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 4,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 9,3</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 9,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 7,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,02</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,08</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-1,64</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,64</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,96</t>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 6,74</t>
+          <t>-2,78; 11,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 3,94</t>
+          <t>-2,3; 12,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,52; 56,7</t>
+          <t>-6,14; 10,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 1,04</t>
+          <t>2,8; 17,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -0,03</t>
+          <t>-3,57; 16,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,77; 53,38</t>
+          <t>-9,2; 3,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 2,48</t>
+          <t>-9,88; 2,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 0,48</t>
+          <t>-8,25; 4,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,93; 52,93</t>
+          <t>-3,53; 11,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 10,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 5,02</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 5,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 5,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 13,62</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 10,45</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>248,71%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,4%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>204,0%</t>
+          <t>-5,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>223,6%</t>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 43,77</t>
+          <t>-4,21; 19,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 25,47</t>
+          <t>-3,66; 21,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>155,94; 362,91</t>
+          <t>-9,54; 18,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,53; 5,57</t>
+          <t>4,2; 31,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,05; -0,03</t>
+          <t>-4,77; 26,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>144,6; 268,7</t>
+          <t>-13,17; 4,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 13,37</t>
+          <t>-13,71; 3,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 3,36</t>
+          <t>-11,58; 7,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>172,39; 284,25</t>
+          <t>-5,18; 18,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; 16,41</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 8,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 9,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 7,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 21,81</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 16,46</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>15,67</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,26</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 4,84</t>
+          <t>-15,87; 15,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 18,11</t>
+          <t>-3,31; 26,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>1,41; 32,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,21; 6,88</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-13,68; 9,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; 13,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 21,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 2,78</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 9,4</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 7,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 15,5</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 22,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,96%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-8,12%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-2,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-18,57%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,3%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,01; 50,96</t>
+          <t>-22,39; 29,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 181,24</t>
+          <t>-4,67; 52,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>2,95; 66,21</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-45,74; 54,61</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 61,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-20,46; 17,86</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; 24,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 38,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-49,72; 22,75</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,76; 74,12</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 14,17</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 28,23</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 40,81</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>48,4</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,11</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,76</t>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,26</t>
+          <t>-7,79; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,68</t>
+          <t>-4,81; 4,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,06; 52,98</t>
+          <t>-1,84; 7,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,33</t>
+          <t>-0,09; 9,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,9</t>
+          <t>-0,48; 8,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,15; 50,95</t>
+          <t>-4,27; 3,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,75</t>
+          <t>-2,75; 4,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,5</t>
+          <t>-2,53; 6,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,53; 50,65</t>
+          <t>-2,14; 6,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 4,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 1,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 3,16</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 5,34</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 6,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 5,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>239,67%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>234,78%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,24%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>237,25%</t>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 1,44</t>
+          <t>-11,51; 2,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 15,07</t>
+          <t>-7,17; 7,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>183,39; 303,69</t>
+          <t>-2,73; 12,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 1,85</t>
+          <t>-0,09; 14,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 27,06</t>
+          <t>-0,69; 13,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>198,04; 277,87</t>
+          <t>-6,56; 5,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -4,05</t>
+          <t>-4,17; 7,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 13,53</t>
+          <t>-3,75; 9,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>199,63; 271,49</t>
+          <t>-3,23; 9,87</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 7,23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 1,84</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 4,98</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 8,44</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 9,88</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 8,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
